--- a/moyusi/Keywords/Web/全部商品-下架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-下架商品.xlsx
@@ -466,10 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\商品上传图片.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-小程序分享图片按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,6 +886,9 @@
   <si>
     <t>椅</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="12" t="s">
@@ -1457,13 +1456,13 @@
       </c>
       <c r="B10" s="11"/>
       <c r="D10" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="F10" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1556,7 +1555,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
@@ -1802,10 +1801,10 @@
         <v>19</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1827,10 +1826,10 @@
         <v>19</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1913,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -1925,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1954,7 +1953,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="12">
         <v>0</v>
@@ -2035,7 +2034,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>70</v>
@@ -2047,7 +2046,7 @@
         <v>80</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F52" s="11"/>
     </row>
@@ -2085,7 +2084,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>70</v>
@@ -2097,7 +2096,7 @@
         <v>999.99</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F55" s="11"/>
     </row>
@@ -2135,7 +2134,7 @@
         <v>19</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="12" t="s">
@@ -2190,7 +2189,7 @@
         <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>91</v>
@@ -2221,7 +2220,7 @@
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" s="14"/>
     </row>
@@ -2243,7 +2242,7 @@
         <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>91</v>
@@ -2274,7 +2273,7 @@
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F68" s="14"/>
     </row>
@@ -2296,7 +2295,7 @@
         <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>91</v>
@@ -2320,13 +2319,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,7 +2340,7 @@
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -2356,10 +2355,10 @@
         <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F74" s="11"/>
     </row>
@@ -2368,13 +2367,13 @@
         <v>9</v>
       </c>
       <c r="D75" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F75" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2389,7 +2388,7 @@
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F76" s="14"/>
     </row>
@@ -2404,10 +2403,10 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" s="11"/>
     </row>
@@ -2416,13 +2415,13 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" t="s">
         <v>105</v>
-      </c>
-      <c r="F78" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2437,7 +2436,7 @@
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F79" s="14"/>
     </row>
@@ -2452,10 +2451,10 @@
         <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F80" s="11"/>
     </row>
@@ -2464,13 +2463,13 @@
         <v>9</v>
       </c>
       <c r="D81" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F81" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2485,7 +2484,7 @@
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82" s="14"/>
     </row>
@@ -2500,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F83" s="11"/>
     </row>
@@ -2512,13 +2511,13 @@
         <v>9</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,10 +2531,10 @@
         <v>9</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F85" s="14"/>
     </row>
@@ -2553,7 +2552,7 @@
         <v>1111</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F86" s="11"/>
     </row>
@@ -2562,13 +2561,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2583,7 +2582,7 @@
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F88" s="14"/>
     </row>
@@ -2598,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F89" s="11"/>
     </row>
@@ -2610,13 +2609,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F90" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,7 +2630,7 @@
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F91" s="14"/>
     </row>
@@ -2646,10 +2645,10 @@
         <v>11</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F92" s="11"/>
     </row>
@@ -2658,13 +2657,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2672,26 +2671,26 @@
         <v>19</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F95" s="11"/>
     </row>
@@ -2713,11 +2712,11 @@
         <v>19</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F97" s="11"/>
     </row>
@@ -2727,13 +2726,13 @@
       </c>
       <c r="B98" s="13"/>
       <c r="D98" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2754,24 +2753,24 @@
         <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2779,21 +2778,21 @@
         <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2801,10 +2800,10 @@
         <v>19</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2838,7 +2837,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>70</v>
@@ -2850,7 +2849,7 @@
         <v>888.99</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F107" s="11"/>
     </row>
@@ -2872,11 +2871,11 @@
         <v>19</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F109" s="11"/>
     </row>
@@ -2886,13 +2885,13 @@
       </c>
       <c r="B110" s="13"/>
       <c r="D110" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F110" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,13 +2955,13 @@
       </c>
       <c r="B115" s="11"/>
       <c r="D115" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F115" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -2970,13 +2969,13 @@
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -2984,13 +2983,13 @@
         <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3011,13 +3010,13 @@
         <v>32</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3025,10 +3024,10 @@
         <v>19</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3036,13 +3035,13 @@
         <v>9</v>
       </c>
       <c r="D121" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/moyusi/Keywords/Web/全部商品-下架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-下架商品.xlsx
@@ -888,7 +888,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
